--- a/Code/Results/Cases/Case_5_111/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_111/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9933393966732239</v>
+        <v>1.043260161776686</v>
       </c>
       <c r="D2">
-        <v>1.013843604245741</v>
+        <v>1.046428770128438</v>
       </c>
       <c r="E2">
-        <v>1.000158791209903</v>
+        <v>1.041230987379512</v>
       </c>
       <c r="F2">
-        <v>1.013685308026617</v>
+        <v>1.054716789940024</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040007782906313</v>
+        <v>1.035695167092103</v>
       </c>
       <c r="J2">
-        <v>1.015721166842254</v>
+        <v>1.048331565347354</v>
       </c>
       <c r="K2">
-        <v>1.025113386716673</v>
+        <v>1.049194232275643</v>
       </c>
       <c r="L2">
-        <v>1.011615914261848</v>
+        <v>1.044011088834224</v>
       </c>
       <c r="M2">
-        <v>1.024957221167315</v>
+        <v>1.057459232750838</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.000938454416004</v>
+        <v>1.0447761258573</v>
       </c>
       <c r="D3">
-        <v>1.019537717076737</v>
+        <v>1.04757475203088</v>
       </c>
       <c r="E3">
-        <v>1.006484351828637</v>
+        <v>1.042538705071643</v>
       </c>
       <c r="F3">
-        <v>1.020350636261022</v>
+        <v>1.056094196138114</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041966788651481</v>
+        <v>1.035997814210861</v>
       </c>
       <c r="J3">
-        <v>1.021403568869977</v>
+        <v>1.049491494871725</v>
       </c>
       <c r="K3">
-        <v>1.029926566403606</v>
+        <v>1.0501509862116</v>
       </c>
       <c r="L3">
-        <v>1.017034931072164</v>
+        <v>1.045128086639668</v>
       </c>
       <c r="M3">
-        <v>1.030729583719025</v>
+        <v>1.058648496899756</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005708126541276</v>
+        <v>1.045755743955565</v>
       </c>
       <c r="D4">
-        <v>1.023114533181098</v>
+        <v>1.04831492629831</v>
       </c>
       <c r="E4">
-        <v>1.010461190450679</v>
+        <v>1.043383953425448</v>
       </c>
       <c r="F4">
-        <v>1.024541100668668</v>
+        <v>1.05698447058277</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043183587463076</v>
+        <v>1.036191685584827</v>
       </c>
       <c r="J4">
-        <v>1.024966936402318</v>
+        <v>1.050240359924659</v>
       </c>
       <c r="K4">
-        <v>1.032941766100576</v>
+        <v>1.050768141607326</v>
       </c>
       <c r="L4">
-        <v>1.020434976657154</v>
+        <v>1.045849387169562</v>
       </c>
       <c r="M4">
-        <v>1.034352090893238</v>
+        <v>1.059416500872544</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007680004165239</v>
+        <v>1.046167268682975</v>
       </c>
       <c r="D5">
-        <v>1.0245938034527</v>
+        <v>1.048625776260938</v>
       </c>
       <c r="E5">
-        <v>1.012106751227981</v>
+        <v>1.043739078018836</v>
       </c>
       <c r="F5">
-        <v>1.026275049552636</v>
+        <v>1.057358508280055</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043683491558348</v>
+        <v>1.03627272108411</v>
       </c>
       <c r="J5">
-        <v>1.026439236802219</v>
+        <v>1.050554784244984</v>
       </c>
       <c r="K5">
-        <v>1.034186801582941</v>
+        <v>1.051027136324884</v>
       </c>
       <c r="L5">
-        <v>1.021840229596839</v>
+        <v>1.046152274529214</v>
       </c>
       <c r="M5">
-        <v>1.03584945455657</v>
+        <v>1.059739008672601</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008009193858739</v>
+        <v>1.046236347723033</v>
       </c>
       <c r="D6">
-        <v>1.024840784438755</v>
+        <v>1.048677950744641</v>
       </c>
       <c r="E6">
-        <v>1.012381547660469</v>
+        <v>1.043798692384657</v>
       </c>
       <c r="F6">
-        <v>1.026564605406405</v>
+        <v>1.057421297314222</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043766759663386</v>
+        <v>1.036286299901193</v>
       </c>
       <c r="J6">
-        <v>1.026684972772182</v>
+        <v>1.050607554254348</v>
       </c>
       <c r="K6">
-        <v>1.034394559126032</v>
+        <v>1.051070595977686</v>
       </c>
       <c r="L6">
-        <v>1.022074800177955</v>
+        <v>1.04620311042239</v>
       </c>
       <c r="M6">
-        <v>1.036099409968879</v>
+        <v>1.059793138125189</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005734603162744</v>
+        <v>1.04576124396519</v>
       </c>
       <c r="D7">
-        <v>1.023134393526528</v>
+        <v>1.04831908113977</v>
       </c>
       <c r="E7">
-        <v>1.010483279944982</v>
+        <v>1.04338869946682</v>
       </c>
       <c r="F7">
-        <v>1.024564376700249</v>
+        <v>1.056989469404074</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043190312272809</v>
+        <v>1.036192770222228</v>
       </c>
       <c r="J7">
-        <v>1.02498670867594</v>
+        <v>1.050244562837297</v>
       </c>
       <c r="K7">
-        <v>1.032958489428282</v>
+        <v>1.050771604099502</v>
       </c>
       <c r="L7">
-        <v>1.020453846811729</v>
+        <v>1.045853435724152</v>
       </c>
       <c r="M7">
-        <v>1.034372197300093</v>
+        <v>1.059420811650039</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.995939320199225</v>
+        <v>1.043772765054363</v>
       </c>
       <c r="D8">
-        <v>1.015791096184312</v>
+        <v>1.046816342888006</v>
       </c>
       <c r="E8">
-        <v>1.00232156596369</v>
+        <v>1.041673133030758</v>
       </c>
       <c r="F8">
-        <v>1.015964242299057</v>
+        <v>1.05518250113821</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040680689167298</v>
+        <v>1.035797855204747</v>
       </c>
       <c r="J8">
-        <v>1.017665973473019</v>
+        <v>1.048723921447507</v>
       </c>
       <c r="K8">
-        <v>1.026761332478406</v>
+        <v>1.049517973595136</v>
       </c>
       <c r="L8">
-        <v>1.01347018172902</v>
+        <v>1.044388891197042</v>
       </c>
       <c r="M8">
-        <v>1.026932224149896</v>
+        <v>1.057861469891345</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9774496690884666</v>
+        <v>1.040258430923221</v>
       </c>
       <c r="D9">
-        <v>1.001959558256</v>
+        <v>1.044157762431224</v>
       </c>
       <c r="E9">
-        <v>0.9869736576315487</v>
+        <v>1.038642700955887</v>
       </c>
       <c r="F9">
-        <v>0.9997926105265907</v>
+        <v>1.051990485707186</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035843083842334</v>
+        <v>1.035086870374436</v>
       </c>
       <c r="J9">
-        <v>1.003824663301609</v>
+        <v>1.046031198798407</v>
       </c>
       <c r="K9">
-        <v>1.015020922798165</v>
+        <v>1.047293956184705</v>
       </c>
       <c r="L9">
-        <v>1.000281673924157</v>
+        <v>1.041796681934693</v>
       </c>
       <c r="M9">
-        <v>1.012889053376634</v>
+        <v>1.055101767873639</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9641385931120948</v>
+        <v>1.037908096796548</v>
       </c>
       <c r="D10">
-        <v>0.9920331178263162</v>
+        <v>1.042377985299028</v>
       </c>
       <c r="E10">
-        <v>0.9759727374298839</v>
+        <v>1.036617105066968</v>
       </c>
       <c r="F10">
-        <v>0.9882027012319496</v>
+        <v>1.049856805095535</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032297464838356</v>
+        <v>1.034602631456029</v>
       </c>
       <c r="J10">
-        <v>0.9938509983455468</v>
+        <v>1.044226867822961</v>
       </c>
       <c r="K10">
-        <v>1.006547722249927</v>
+        <v>1.045800949793095</v>
       </c>
       <c r="L10">
-        <v>0.9907897993489316</v>
+        <v>1.040060500245659</v>
       </c>
       <c r="M10">
-        <v>1.002788277319756</v>
+        <v>1.053253614676644</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.958099370818572</v>
+        <v>1.036888506212694</v>
       </c>
       <c r="D11">
-        <v>0.987539722263302</v>
+        <v>1.04160550449564</v>
       </c>
       <c r="E11">
-        <v>0.9709953718523328</v>
+        <v>1.035738663799029</v>
       </c>
       <c r="F11">
-        <v>0.9829594377046381</v>
+        <v>1.048931473296447</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030675281824793</v>
+        <v>1.034390496916137</v>
       </c>
       <c r="J11">
-        <v>0.9893254752769781</v>
+        <v>1.04344331925545</v>
       </c>
       <c r="K11">
-        <v>1.002700509919297</v>
+        <v>1.045151951151662</v>
       </c>
       <c r="L11">
-        <v>0.9864858161489471</v>
+        <v>1.039306736441616</v>
       </c>
       <c r="M11">
-        <v>0.9982100316130729</v>
+        <v>1.052451290549654</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9558105921760989</v>
+        <v>1.036509493311694</v>
       </c>
       <c r="D12">
-        <v>0.9858385980570771</v>
+        <v>1.041318290781311</v>
       </c>
       <c r="E12">
-        <v>0.969111305427986</v>
+        <v>1.035412162834608</v>
       </c>
       <c r="F12">
-        <v>0.9809748351928587</v>
+        <v>1.048587541471988</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030058598941167</v>
+        <v>1.034311329702884</v>
       </c>
       <c r="J12">
-        <v>0.9876104563719807</v>
+        <v>1.043151928106744</v>
       </c>
       <c r="K12">
-        <v>1.001242231979494</v>
+        <v>1.044910500682837</v>
       </c>
       <c r="L12">
-        <v>0.9848552151503031</v>
+        <v>1.039026450522921</v>
       </c>
       <c r="M12">
-        <v>0.9964758352730043</v>
+        <v>1.052152955579728</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9563036770495768</v>
+        <v>1.036590806205342</v>
       </c>
       <c r="D13">
-        <v>0.986204994816102</v>
+        <v>1.041379911857992</v>
       </c>
       <c r="E13">
-        <v>0.9695170939503198</v>
+        <v>1.035482207955183</v>
       </c>
       <c r="F13">
-        <v>0.9814022715348428</v>
+        <v>1.048661326191791</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030191537867357</v>
+        <v>1.03432832816017</v>
       </c>
       <c r="J13">
-        <v>0.9879799260170194</v>
+        <v>1.043214448275359</v>
       </c>
       <c r="K13">
-        <v>1.001556404611191</v>
+        <v>1.044962310067076</v>
       </c>
       <c r="L13">
-        <v>0.9852064772706296</v>
+        <v>1.039086586681659</v>
       </c>
       <c r="M13">
-        <v>0.9968493991137283</v>
+        <v>1.052216963848371</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9579111348522743</v>
+        <v>1.036857182888419</v>
       </c>
       <c r="D14">
-        <v>0.9873997784152302</v>
+        <v>1.041581769064321</v>
       </c>
       <c r="E14">
-        <v>0.9708403729802324</v>
+        <v>1.03571167942521</v>
       </c>
       <c r="F14">
-        <v>0.9827961654491802</v>
+        <v>1.04890304836171</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030624601646629</v>
+        <v>1.034383960509683</v>
       </c>
       <c r="J14">
-        <v>0.9891844242081886</v>
+        <v>1.043419239875341</v>
       </c>
       <c r="K14">
-        <v>1.002580580424395</v>
+        <v>1.045132000634343</v>
       </c>
       <c r="L14">
-        <v>0.9863516985010328</v>
+        <v>1.03928357416723</v>
       </c>
       <c r="M14">
-        <v>0.998067386672306</v>
+        <v>1.052426636572439</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9588953734984517</v>
+        <v>1.037021267447815</v>
       </c>
       <c r="D15">
-        <v>0.9881315848406971</v>
+        <v>1.04170610268456</v>
       </c>
       <c r="E15">
-        <v>0.9716509173322059</v>
+        <v>1.035853036506352</v>
       </c>
       <c r="F15">
-        <v>0.9836499790368632</v>
+        <v>1.049051951690259</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030889519298427</v>
+        <v>1.034418188214209</v>
       </c>
       <c r="J15">
-        <v>0.9899219495049807</v>
+        <v>1.043545372650118</v>
       </c>
       <c r="K15">
-        <v>1.003207653183768</v>
+        <v>1.045236501618964</v>
       </c>
       <c r="L15">
-        <v>0.9870529893489043</v>
+        <v>1.03940490412691</v>
       </c>
       <c r="M15">
-        <v>0.998813278947976</v>
+        <v>1.052555780785692</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9645332509414311</v>
+        <v>1.037975723276682</v>
       </c>
       <c r="D16">
-        <v>0.992326990690609</v>
+        <v>1.042429213359699</v>
       </c>
       <c r="E16">
-        <v>0.9762983057167636</v>
+        <v>1.036675375414057</v>
       </c>
       <c r="F16">
-        <v>0.9885456760570572</v>
+        <v>1.049918185514572</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032403204211468</v>
+        <v>1.034616658211118</v>
       </c>
       <c r="J16">
-        <v>0.9941467404583098</v>
+        <v>1.044278821156248</v>
       </c>
       <c r="K16">
-        <v>1.006799089904777</v>
+        <v>1.045843968211425</v>
       </c>
       <c r="L16">
-        <v>0.9910711261824048</v>
+        <v>1.040110482706685</v>
       </c>
       <c r="M16">
-        <v>1.003087571984635</v>
+        <v>1.053306818311587</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9679932365959323</v>
+        <v>1.038573918395485</v>
       </c>
       <c r="D17">
-        <v>0.9949045704142565</v>
+        <v>1.04288230883246</v>
       </c>
       <c r="E17">
-        <v>0.9791541516355274</v>
+        <v>1.037190842099733</v>
       </c>
       <c r="F17">
-        <v>0.991554279250166</v>
+        <v>1.050461162291122</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033328716022396</v>
+        <v>1.034740494256977</v>
       </c>
       <c r="J17">
-        <v>0.9967394901023291</v>
+        <v>1.044738283969023</v>
       </c>
       <c r="K17">
-        <v>1.009002534737762</v>
+        <v>1.04622433833332</v>
       </c>
       <c r="L17">
-        <v>0.9935378304378943</v>
+        <v>1.040552537556156</v>
       </c>
       <c r="M17">
-        <v>1.005712030990584</v>
+        <v>1.053777367905092</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9699851213572073</v>
+        <v>1.038922654671969</v>
       </c>
       <c r="D18">
-        <v>0.9963894011004194</v>
+        <v>1.043146416002675</v>
       </c>
       <c r="E18">
-        <v>0.9807995117843287</v>
+        <v>1.037491375791688</v>
       </c>
       <c r="F18">
-        <v>0.9932877022903938</v>
+        <v>1.050777733569846</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033860245928315</v>
+        <v>1.034812488907735</v>
       </c>
       <c r="J18">
-        <v>0.9982320578634064</v>
+        <v>1.045006063114693</v>
       </c>
       <c r="K18">
-        <v>1.010270750594677</v>
+        <v>1.046445959296408</v>
       </c>
       <c r="L18">
-        <v>0.9949581108566296</v>
+        <v>1.040810189500827</v>
       </c>
       <c r="M18">
-        <v>1.007223313423499</v>
+        <v>1.054051633038856</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9706599646063461</v>
+        <v>1.039041534333226</v>
       </c>
       <c r="D19">
-        <v>0.9968926081348563</v>
+        <v>1.043236440082559</v>
       </c>
       <c r="E19">
-        <v>0.9813571637512254</v>
+        <v>1.037593828283782</v>
       </c>
       <c r="F19">
-        <v>0.9938752093079393</v>
+        <v>1.050885653015753</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034040105505859</v>
+        <v>1.034836997115402</v>
       </c>
       <c r="J19">
-        <v>0.998737720296293</v>
+        <v>1.045097332148983</v>
       </c>
       <c r="K19">
-        <v>1.010700362925206</v>
+        <v>1.046521485346587</v>
       </c>
       <c r="L19">
-        <v>0.9954393290256373</v>
+        <v>1.040898009915098</v>
       </c>
       <c r="M19">
-        <v>1.00773539265833</v>
+        <v>1.054145116886217</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9676247579847157</v>
+        <v>1.038509756488728</v>
       </c>
       <c r="D20">
-        <v>0.9946299660144965</v>
+        <v>1.042833714196484</v>
       </c>
       <c r="E20">
-        <v>0.9788498783237324</v>
+        <v>1.037135550825976</v>
       </c>
       <c r="F20">
-        <v>0.9912337248200501</v>
+        <v>1.05040292033456</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033230283754067</v>
+        <v>1.034727232331331</v>
       </c>
       <c r="J20">
-        <v>0.9964633744468508</v>
+        <v>1.044689010527074</v>
       </c>
       <c r="K20">
-        <v>1.008767902831964</v>
+        <v>1.046183553339897</v>
       </c>
       <c r="L20">
-        <v>0.9932751094791639</v>
+        <v>1.040505129072631</v>
       </c>
       <c r="M20">
-        <v>1.005432490170061</v>
+        <v>1.053726902962928</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9574390721295223</v>
+        <v>1.036778749716052</v>
       </c>
       <c r="D21">
-        <v>0.9870488538878327</v>
+        <v>1.041522334922031</v>
       </c>
       <c r="E21">
-        <v>0.9704517005502102</v>
+        <v>1.035644111613808</v>
       </c>
       <c r="F21">
-        <v>0.9823867487432693</v>
+        <v>1.048831873402676</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030497474630927</v>
+        <v>1.034367588427152</v>
       </c>
       <c r="J21">
-        <v>0.9888306949378353</v>
+        <v>1.043358943466766</v>
       </c>
       <c r="K21">
-        <v>1.002279815198788</v>
+        <v>1.045082041620506</v>
       </c>
       <c r="L21">
-        <v>0.9860153644357947</v>
+        <v>1.039225574717337</v>
       </c>
       <c r="M21">
-        <v>0.9977096733878774</v>
+        <v>1.052364901957233</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9507689230597938</v>
+        <v>1.035688705641418</v>
       </c>
       <c r="D22">
-        <v>0.9820950700949835</v>
+        <v>1.040696196176042</v>
       </c>
       <c r="E22">
-        <v>0.9649656102472682</v>
+        <v>1.034705173374244</v>
       </c>
       <c r="F22">
-        <v>0.9766081604358746</v>
+        <v>1.047842803657764</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028696842101658</v>
+        <v>1.034139318521245</v>
       </c>
       <c r="J22">
-        <v>0.9838330141570579</v>
+        <v>1.042520670499307</v>
       </c>
       <c r="K22">
-        <v>0.9980297720473095</v>
+        <v>1.044387256137385</v>
       </c>
       <c r="L22">
-        <v>0.9812645883537765</v>
+        <v>1.038419303394552</v>
       </c>
       <c r="M22">
-        <v>0.9926577066635256</v>
+        <v>1.051506726034814</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9543316573424884</v>
+        <v>1.036266721994798</v>
       </c>
       <c r="D23">
-        <v>0.9847399333003538</v>
+        <v>1.041134303662949</v>
       </c>
       <c r="E23">
-        <v>0.9678945562156458</v>
+        <v>1.035203039362896</v>
       </c>
       <c r="F23">
-        <v>0.979693194128591</v>
+        <v>1.048367252871477</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029659601279137</v>
+        <v>1.034260532958473</v>
       </c>
       <c r="J23">
-        <v>0.9865023137269253</v>
+        <v>1.042965247311842</v>
       </c>
       <c r="K23">
-        <v>1.000299899486799</v>
+        <v>1.044755787413525</v>
       </c>
       <c r="L23">
-        <v>0.983801751509393</v>
+        <v>1.038846892419302</v>
       </c>
       <c r="M23">
-        <v>0.9953555355779399</v>
+        <v>1.051961837092159</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9677913384710197</v>
+        <v>1.03853874905152</v>
       </c>
       <c r="D24">
-        <v>0.9947541052848616</v>
+        <v>1.0428556725641</v>
       </c>
       <c r="E24">
-        <v>0.9789874291676237</v>
+        <v>1.037160534972424</v>
       </c>
       <c r="F24">
-        <v>0.9913786355975447</v>
+        <v>1.050429237794105</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033274786645895</v>
+        <v>1.03473322555654</v>
       </c>
       <c r="J24">
-        <v>0.9965882000074188</v>
+        <v>1.044711275747578</v>
       </c>
       <c r="K24">
-        <v>1.008873975293001</v>
+        <v>1.046201983072372</v>
       </c>
       <c r="L24">
-        <v>0.9933938787569689</v>
+        <v>1.040526551516601</v>
       </c>
       <c r="M24">
-        <v>1.005558862742412</v>
+        <v>1.05374970651162</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.982390490535733</v>
+        <v>1.04116824839004</v>
       </c>
       <c r="D25">
-        <v>1.005651172979316</v>
+        <v>1.044846350533815</v>
       </c>
       <c r="E25">
-        <v>0.9910673909832382</v>
+        <v>1.03942705055259</v>
       </c>
       <c r="F25">
-        <v>1.0041058843498</v>
+        <v>1.052816671496797</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037146901086737</v>
+        <v>1.035272476026071</v>
       </c>
       <c r="J25">
-        <v>1.007525373565799</v>
+        <v>1.046728925872745</v>
       </c>
       <c r="K25">
-        <v>1.018162390644967</v>
+        <v>1.047870718495768</v>
       </c>
       <c r="L25">
-        <v>1.003805975194319</v>
+        <v>1.042468224506278</v>
       </c>
       <c r="M25">
-        <v>1.016640794380326</v>
+        <v>1.055816665287794</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_111/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_111/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043260161776686</v>
+        <v>0.9933393966732239</v>
       </c>
       <c r="D2">
-        <v>1.046428770128438</v>
+        <v>1.013843604245741</v>
       </c>
       <c r="E2">
-        <v>1.041230987379512</v>
+        <v>1.000158791209903</v>
       </c>
       <c r="F2">
-        <v>1.054716789940024</v>
+        <v>1.013685308026618</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035695167092103</v>
+        <v>1.040007782906313</v>
       </c>
       <c r="J2">
-        <v>1.048331565347354</v>
+        <v>1.015721166842254</v>
       </c>
       <c r="K2">
-        <v>1.049194232275643</v>
+        <v>1.025113386716673</v>
       </c>
       <c r="L2">
-        <v>1.044011088834224</v>
+        <v>1.011615914261849</v>
       </c>
       <c r="M2">
-        <v>1.057459232750838</v>
+        <v>1.024957221167315</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.0447761258573</v>
+        <v>1.000938454416003</v>
       </c>
       <c r="D3">
-        <v>1.04757475203088</v>
+        <v>1.019537717076736</v>
       </c>
       <c r="E3">
-        <v>1.042538705071643</v>
+        <v>1.006484351828636</v>
       </c>
       <c r="F3">
-        <v>1.056094196138114</v>
+        <v>1.020350636261021</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035997814210861</v>
+        <v>1.04196678865148</v>
       </c>
       <c r="J3">
-        <v>1.049491494871725</v>
+        <v>1.021403568869976</v>
       </c>
       <c r="K3">
-        <v>1.0501509862116</v>
+        <v>1.029926566403605</v>
       </c>
       <c r="L3">
-        <v>1.045128086639668</v>
+        <v>1.017034931072163</v>
       </c>
       <c r="M3">
-        <v>1.058648496899756</v>
+        <v>1.030729583719024</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045755743955565</v>
+        <v>1.005708126541277</v>
       </c>
       <c r="D4">
-        <v>1.04831492629831</v>
+        <v>1.023114533181098</v>
       </c>
       <c r="E4">
-        <v>1.043383953425448</v>
+        <v>1.01046119045068</v>
       </c>
       <c r="F4">
-        <v>1.05698447058277</v>
+        <v>1.024541100668668</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036191685584827</v>
+        <v>1.043183587463076</v>
       </c>
       <c r="J4">
-        <v>1.050240359924659</v>
+        <v>1.024966936402318</v>
       </c>
       <c r="K4">
-        <v>1.050768141607326</v>
+        <v>1.032941766100576</v>
       </c>
       <c r="L4">
-        <v>1.045849387169562</v>
+        <v>1.020434976657155</v>
       </c>
       <c r="M4">
-        <v>1.059416500872544</v>
+        <v>1.034352090893238</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046167268682975</v>
+        <v>1.007680004165241</v>
       </c>
       <c r="D5">
-        <v>1.048625776260938</v>
+        <v>1.024593803452702</v>
       </c>
       <c r="E5">
-        <v>1.043739078018836</v>
+        <v>1.012106751227984</v>
       </c>
       <c r="F5">
-        <v>1.057358508280055</v>
+        <v>1.026275049552639</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03627272108411</v>
+        <v>1.043683491558349</v>
       </c>
       <c r="J5">
-        <v>1.050554784244984</v>
+        <v>1.026439236802221</v>
       </c>
       <c r="K5">
-        <v>1.051027136324884</v>
+        <v>1.034186801582942</v>
       </c>
       <c r="L5">
-        <v>1.046152274529214</v>
+        <v>1.021840229596841</v>
       </c>
       <c r="M5">
-        <v>1.059739008672601</v>
+        <v>1.035849454556572</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046236347723033</v>
+        <v>1.008009193858739</v>
       </c>
       <c r="D6">
-        <v>1.048677950744641</v>
+        <v>1.024840784438755</v>
       </c>
       <c r="E6">
-        <v>1.043798692384657</v>
+        <v>1.012381547660469</v>
       </c>
       <c r="F6">
-        <v>1.057421297314222</v>
+        <v>1.026564605406404</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036286299901193</v>
+        <v>1.043766759663386</v>
       </c>
       <c r="J6">
-        <v>1.050607554254348</v>
+        <v>1.026684972772182</v>
       </c>
       <c r="K6">
-        <v>1.051070595977686</v>
+        <v>1.034394559126032</v>
       </c>
       <c r="L6">
-        <v>1.04620311042239</v>
+        <v>1.022074800177955</v>
       </c>
       <c r="M6">
-        <v>1.059793138125189</v>
+        <v>1.036099409968879</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04576124396519</v>
+        <v>1.005734603162743</v>
       </c>
       <c r="D7">
-        <v>1.04831908113977</v>
+        <v>1.023134393526527</v>
       </c>
       <c r="E7">
-        <v>1.04338869946682</v>
+        <v>1.010483279944981</v>
       </c>
       <c r="F7">
-        <v>1.056989469404074</v>
+        <v>1.024564376700248</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036192770222228</v>
+        <v>1.043190312272809</v>
       </c>
       <c r="J7">
-        <v>1.050244562837297</v>
+        <v>1.024986708675939</v>
       </c>
       <c r="K7">
-        <v>1.050771604099502</v>
+        <v>1.03295848942828</v>
       </c>
       <c r="L7">
-        <v>1.045853435724152</v>
+        <v>1.020453846811728</v>
       </c>
       <c r="M7">
-        <v>1.059420811650039</v>
+        <v>1.034372197300091</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.043772765054363</v>
+        <v>0.9959393201992243</v>
       </c>
       <c r="D8">
-        <v>1.046816342888006</v>
+        <v>1.015791096184311</v>
       </c>
       <c r="E8">
-        <v>1.041673133030758</v>
+        <v>1.002321565963689</v>
       </c>
       <c r="F8">
-        <v>1.05518250113821</v>
+        <v>1.015964242299056</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035797855204747</v>
+        <v>1.040680689167298</v>
       </c>
       <c r="J8">
-        <v>1.048723921447507</v>
+        <v>1.017665973473018</v>
       </c>
       <c r="K8">
-        <v>1.049517973595136</v>
+        <v>1.026761332478406</v>
       </c>
       <c r="L8">
-        <v>1.044388891197042</v>
+        <v>1.013470181729019</v>
       </c>
       <c r="M8">
-        <v>1.057861469891345</v>
+        <v>1.026932224149895</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040258430923221</v>
+        <v>0.9774496690884684</v>
       </c>
       <c r="D9">
-        <v>1.044157762431224</v>
+        <v>1.001959558256002</v>
       </c>
       <c r="E9">
-        <v>1.038642700955887</v>
+        <v>0.9869736576315501</v>
       </c>
       <c r="F9">
-        <v>1.051990485707186</v>
+        <v>0.9997926105265924</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035086870374436</v>
+        <v>1.035843083842334</v>
       </c>
       <c r="J9">
-        <v>1.046031198798407</v>
+        <v>1.003824663301611</v>
       </c>
       <c r="K9">
-        <v>1.047293956184705</v>
+        <v>1.015020922798167</v>
       </c>
       <c r="L9">
-        <v>1.041796681934693</v>
+        <v>1.000281673924158</v>
       </c>
       <c r="M9">
-        <v>1.055101767873639</v>
+        <v>1.012889053376636</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037908096796548</v>
+        <v>0.9641385931120925</v>
       </c>
       <c r="D10">
-        <v>1.042377985299028</v>
+        <v>0.992033117826314</v>
       </c>
       <c r="E10">
-        <v>1.036617105066968</v>
+        <v>0.9759727374298818</v>
       </c>
       <c r="F10">
-        <v>1.049856805095535</v>
+        <v>0.9882027012319474</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034602631456029</v>
+        <v>1.032297464838354</v>
       </c>
       <c r="J10">
-        <v>1.044226867822961</v>
+        <v>0.9938509983455445</v>
       </c>
       <c r="K10">
-        <v>1.045800949793095</v>
+        <v>1.006547722249925</v>
       </c>
       <c r="L10">
-        <v>1.040060500245659</v>
+        <v>0.9907897993489296</v>
       </c>
       <c r="M10">
-        <v>1.053253614676644</v>
+        <v>1.002788277319754</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036888506212694</v>
+        <v>0.9580993708185725</v>
       </c>
       <c r="D11">
-        <v>1.04160550449564</v>
+        <v>0.9875397222633026</v>
       </c>
       <c r="E11">
-        <v>1.035738663799029</v>
+        <v>0.9709953718523333</v>
       </c>
       <c r="F11">
-        <v>1.048931473296447</v>
+        <v>0.9829594377046388</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034390496916137</v>
+        <v>1.030675281824793</v>
       </c>
       <c r="J11">
-        <v>1.04344331925545</v>
+        <v>0.9893254752769787</v>
       </c>
       <c r="K11">
-        <v>1.045151951151662</v>
+        <v>1.002700509919297</v>
       </c>
       <c r="L11">
-        <v>1.039306736441616</v>
+        <v>0.9864858161489477</v>
       </c>
       <c r="M11">
-        <v>1.052451290549654</v>
+        <v>0.9982100316130735</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036509493311694</v>
+        <v>0.9558105921760999</v>
       </c>
       <c r="D12">
-        <v>1.041318290781311</v>
+        <v>0.9858385980570781</v>
       </c>
       <c r="E12">
-        <v>1.035412162834608</v>
+        <v>0.9691113054279865</v>
       </c>
       <c r="F12">
-        <v>1.048587541471988</v>
+        <v>0.98097483519286</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034311329702884</v>
+        <v>1.030058598941168</v>
       </c>
       <c r="J12">
-        <v>1.043151928106744</v>
+        <v>0.987610456371982</v>
       </c>
       <c r="K12">
-        <v>1.044910500682837</v>
+        <v>1.001242231979495</v>
       </c>
       <c r="L12">
-        <v>1.039026450522921</v>
+        <v>0.9848552151503041</v>
       </c>
       <c r="M12">
-        <v>1.052152955579728</v>
+        <v>0.9964758352730054</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036590806205342</v>
+        <v>0.95630367704958</v>
       </c>
       <c r="D13">
-        <v>1.041379911857992</v>
+        <v>0.9862049948161047</v>
       </c>
       <c r="E13">
-        <v>1.035482207955183</v>
+        <v>0.9695170939503227</v>
       </c>
       <c r="F13">
-        <v>1.048661326191791</v>
+        <v>0.9814022715348458</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03432832816017</v>
+        <v>1.030191537867359</v>
       </c>
       <c r="J13">
-        <v>1.043214448275359</v>
+        <v>0.9879799260170227</v>
       </c>
       <c r="K13">
-        <v>1.044962310067076</v>
+        <v>1.001556404611194</v>
       </c>
       <c r="L13">
-        <v>1.039086586681659</v>
+        <v>0.9852064772706326</v>
       </c>
       <c r="M13">
-        <v>1.052216963848371</v>
+        <v>0.9968493991137313</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036857182888419</v>
+        <v>0.9579111348522734</v>
       </c>
       <c r="D14">
-        <v>1.041581769064321</v>
+        <v>0.9873997784152297</v>
       </c>
       <c r="E14">
-        <v>1.03571167942521</v>
+        <v>0.9708403729802316</v>
       </c>
       <c r="F14">
-        <v>1.04890304836171</v>
+        <v>0.9827961654491802</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034383960509683</v>
+        <v>1.030624601646629</v>
       </c>
       <c r="J14">
-        <v>1.043419239875341</v>
+        <v>0.9891844242081878</v>
       </c>
       <c r="K14">
-        <v>1.045132000634343</v>
+        <v>1.002580580424394</v>
       </c>
       <c r="L14">
-        <v>1.03928357416723</v>
+        <v>0.9863516985010319</v>
       </c>
       <c r="M14">
-        <v>1.052426636572439</v>
+        <v>0.9980673866723058</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037021267447815</v>
+        <v>0.958895373498454</v>
       </c>
       <c r="D15">
-        <v>1.04170610268456</v>
+        <v>0.9881315848406987</v>
       </c>
       <c r="E15">
-        <v>1.035853036506352</v>
+        <v>0.9716509173322077</v>
       </c>
       <c r="F15">
-        <v>1.049051951690259</v>
+        <v>0.9836499790368651</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034418188214209</v>
+        <v>1.030889519298428</v>
       </c>
       <c r="J15">
-        <v>1.043545372650118</v>
+        <v>0.9899219495049828</v>
       </c>
       <c r="K15">
-        <v>1.045236501618964</v>
+        <v>1.00320765318377</v>
       </c>
       <c r="L15">
-        <v>1.03940490412691</v>
+        <v>0.9870529893489061</v>
       </c>
       <c r="M15">
-        <v>1.052555780785692</v>
+        <v>0.9988132789479778</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037975723276682</v>
+        <v>0.9645332509414306</v>
       </c>
       <c r="D16">
-        <v>1.042429213359699</v>
+        <v>0.9923269906906084</v>
       </c>
       <c r="E16">
-        <v>1.036675375414057</v>
+        <v>0.9762983057167632</v>
       </c>
       <c r="F16">
-        <v>1.049918185514572</v>
+        <v>0.9885456760570566</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034616658211118</v>
+        <v>1.032403204211468</v>
       </c>
       <c r="J16">
-        <v>1.044278821156248</v>
+        <v>0.9941467404583094</v>
       </c>
       <c r="K16">
-        <v>1.045843968211425</v>
+        <v>1.006799089904776</v>
       </c>
       <c r="L16">
-        <v>1.040110482706685</v>
+        <v>0.9910711261824042</v>
       </c>
       <c r="M16">
-        <v>1.053306818311587</v>
+        <v>1.003087571984635</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038573918395485</v>
+        <v>0.9679932365959321</v>
       </c>
       <c r="D17">
-        <v>1.04288230883246</v>
+        <v>0.9949045704142563</v>
       </c>
       <c r="E17">
-        <v>1.037190842099733</v>
+        <v>0.9791541516355268</v>
       </c>
       <c r="F17">
-        <v>1.050461162291122</v>
+        <v>0.9915542792501659</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034740494256977</v>
+        <v>1.033328716022396</v>
       </c>
       <c r="J17">
-        <v>1.044738283969023</v>
+        <v>0.9967394901023289</v>
       </c>
       <c r="K17">
-        <v>1.04622433833332</v>
+        <v>1.009002534737762</v>
       </c>
       <c r="L17">
-        <v>1.040552537556156</v>
+        <v>0.9935378304378939</v>
       </c>
       <c r="M17">
-        <v>1.053777367905092</v>
+        <v>1.005712030990584</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038922654671969</v>
+        <v>0.9699851213572065</v>
       </c>
       <c r="D18">
-        <v>1.043146416002675</v>
+        <v>0.996389401100419</v>
       </c>
       <c r="E18">
-        <v>1.037491375791688</v>
+        <v>0.9807995117843281</v>
       </c>
       <c r="F18">
-        <v>1.050777733569846</v>
+        <v>0.9932877022903931</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034812488907735</v>
+        <v>1.033860245928314</v>
       </c>
       <c r="J18">
-        <v>1.045006063114693</v>
+        <v>0.9982320578634061</v>
       </c>
       <c r="K18">
-        <v>1.046445959296408</v>
+        <v>1.010270750594676</v>
       </c>
       <c r="L18">
-        <v>1.040810189500827</v>
+        <v>0.994958110856629</v>
       </c>
       <c r="M18">
-        <v>1.054051633038856</v>
+        <v>1.007223313423498</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039041534333226</v>
+        <v>0.9706599646063463</v>
       </c>
       <c r="D19">
-        <v>1.043236440082559</v>
+        <v>0.9968926081348567</v>
       </c>
       <c r="E19">
-        <v>1.037593828283782</v>
+        <v>0.9813571637512256</v>
       </c>
       <c r="F19">
-        <v>1.050885653015753</v>
+        <v>0.9938752093079399</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034836997115402</v>
+        <v>1.034040105505859</v>
       </c>
       <c r="J19">
-        <v>1.045097332148983</v>
+        <v>0.9987377202962933</v>
       </c>
       <c r="K19">
-        <v>1.046521485346587</v>
+        <v>1.010700362925207</v>
       </c>
       <c r="L19">
-        <v>1.040898009915098</v>
+        <v>0.9954393290256375</v>
       </c>
       <c r="M19">
-        <v>1.054145116886217</v>
+        <v>1.007735392658331</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038509756488728</v>
+        <v>0.967624757984714</v>
       </c>
       <c r="D20">
-        <v>1.042833714196484</v>
+        <v>0.9946299660144952</v>
       </c>
       <c r="E20">
-        <v>1.037135550825976</v>
+        <v>0.9788498783237313</v>
       </c>
       <c r="F20">
-        <v>1.05040292033456</v>
+        <v>0.9912337248200488</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034727232331331</v>
+        <v>1.033230283754067</v>
       </c>
       <c r="J20">
-        <v>1.044689010527074</v>
+        <v>0.9964633744468494</v>
       </c>
       <c r="K20">
-        <v>1.046183553339897</v>
+        <v>1.008767902831962</v>
       </c>
       <c r="L20">
-        <v>1.040505129072631</v>
+        <v>0.9932751094791625</v>
       </c>
       <c r="M20">
-        <v>1.053726902962928</v>
+        <v>1.00543249017006</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036778749716052</v>
+        <v>0.9574390721295242</v>
       </c>
       <c r="D21">
-        <v>1.041522334922031</v>
+        <v>0.987048853887834</v>
       </c>
       <c r="E21">
-        <v>1.035644111613808</v>
+        <v>0.9704517005502113</v>
       </c>
       <c r="F21">
-        <v>1.048831873402676</v>
+        <v>0.9823867487432707</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034367588427152</v>
+        <v>1.030497474630928</v>
       </c>
       <c r="J21">
-        <v>1.043358943466766</v>
+        <v>0.9888306949378368</v>
       </c>
       <c r="K21">
-        <v>1.045082041620506</v>
+        <v>1.00227981519879</v>
       </c>
       <c r="L21">
-        <v>1.039225574717337</v>
+        <v>0.986015364435796</v>
       </c>
       <c r="M21">
-        <v>1.052364901957233</v>
+        <v>0.9977096733878787</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035688705641418</v>
+        <v>0.950768923059792</v>
       </c>
       <c r="D22">
-        <v>1.040696196176042</v>
+        <v>0.9820950700949818</v>
       </c>
       <c r="E22">
-        <v>1.034705173374244</v>
+        <v>0.9649656102472665</v>
       </c>
       <c r="F22">
-        <v>1.047842803657764</v>
+        <v>0.9766081604358727</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034139318521245</v>
+        <v>1.028696842101658</v>
       </c>
       <c r="J22">
-        <v>1.042520670499307</v>
+        <v>0.9838330141570562</v>
       </c>
       <c r="K22">
-        <v>1.044387256137385</v>
+        <v>0.9980297720473077</v>
       </c>
       <c r="L22">
-        <v>1.038419303394552</v>
+        <v>0.9812645883537745</v>
       </c>
       <c r="M22">
-        <v>1.051506726034814</v>
+        <v>0.9926577066635239</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036266721994798</v>
+        <v>0.9543316573424885</v>
       </c>
       <c r="D23">
-        <v>1.041134303662949</v>
+        <v>0.9847399333003539</v>
       </c>
       <c r="E23">
-        <v>1.035203039362896</v>
+        <v>0.9678945562156458</v>
       </c>
       <c r="F23">
-        <v>1.048367252871477</v>
+        <v>0.9796931941285918</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034260532958473</v>
+        <v>1.029659601279137</v>
       </c>
       <c r="J23">
-        <v>1.042965247311842</v>
+        <v>0.9865023137269255</v>
       </c>
       <c r="K23">
-        <v>1.044755787413525</v>
+        <v>1.000299899486799</v>
       </c>
       <c r="L23">
-        <v>1.038846892419302</v>
+        <v>0.983801751509393</v>
       </c>
       <c r="M23">
-        <v>1.051961837092159</v>
+        <v>0.9953555355779407</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03853874905152</v>
+        <v>0.9677913384710191</v>
       </c>
       <c r="D24">
-        <v>1.0428556725641</v>
+        <v>0.9947541052848613</v>
       </c>
       <c r="E24">
-        <v>1.037160534972424</v>
+        <v>0.9789874291676229</v>
       </c>
       <c r="F24">
-        <v>1.050429237794105</v>
+        <v>0.9913786355975442</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03473322555654</v>
+        <v>1.033274786645894</v>
       </c>
       <c r="J24">
-        <v>1.044711275747578</v>
+        <v>0.9965882000074179</v>
       </c>
       <c r="K24">
-        <v>1.046201983072372</v>
+        <v>1.008873975293001</v>
       </c>
       <c r="L24">
-        <v>1.040526551516601</v>
+        <v>0.9933938787569682</v>
       </c>
       <c r="M24">
-        <v>1.05374970651162</v>
+        <v>1.005558862742411</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04116824839004</v>
+        <v>0.9823904905357324</v>
       </c>
       <c r="D25">
-        <v>1.044846350533815</v>
+        <v>1.005651172979316</v>
       </c>
       <c r="E25">
-        <v>1.03942705055259</v>
+        <v>0.9910673909832376</v>
       </c>
       <c r="F25">
-        <v>1.052816671496797</v>
+        <v>1.004105884349799</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035272476026071</v>
+        <v>1.037146901086737</v>
       </c>
       <c r="J25">
-        <v>1.046728925872745</v>
+        <v>1.007525373565799</v>
       </c>
       <c r="K25">
-        <v>1.047870718495768</v>
+        <v>1.018162390644967</v>
       </c>
       <c r="L25">
-        <v>1.042468224506278</v>
+        <v>1.003805975194318</v>
       </c>
       <c r="M25">
-        <v>1.055816665287794</v>
+        <v>1.016640794380325</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
